--- a/mapa_perm_heterogeneo.xlsx
+++ b/mapa_perm_heterogeneo.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -389,11 +389,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="8.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -459,1242 +462,1632 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>102.04807517871561</v>
+        <f ca="1">RANDBETWEEN(220.365875, 578.568249)</f>
+        <v>466</v>
       </c>
       <c r="B2">
-        <v>135.59372197324819</v>
+        <f t="shared" ref="B2:T15" ca="1" si="0">RANDBETWEEN(220.365875, 578.568249)</f>
+        <v>316</v>
       </c>
       <c r="C2">
-        <v>146.03625323499691</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>257</v>
       </c>
       <c r="D2">
-        <v>138.3825015159704</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>464</v>
       </c>
       <c r="E2">
-        <v>104.1951033537817</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>434</v>
       </c>
       <c r="F2">
-        <v>135.107005305071</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>440</v>
       </c>
       <c r="G2">
-        <v>125.46105308354529</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>301</v>
       </c>
       <c r="H2">
-        <v>110.4818068715805</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>375</v>
       </c>
       <c r="I2">
-        <v>143.36549337619741</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>470</v>
       </c>
       <c r="J2">
-        <v>114.9798014963787</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>566</v>
       </c>
       <c r="K2">
-        <v>138.7031904947128</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>228</v>
       </c>
       <c r="L2">
-        <v>134.63994935516871</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>330</v>
       </c>
       <c r="M2">
-        <v>112.98708951650249</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>285</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>106.3650034799676</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>408</v>
       </c>
       <c r="P2">
-        <v>123.2312072948322</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>231</v>
       </c>
       <c r="Q2">
-        <v>102.5339871752541</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>421</v>
       </c>
       <c r="R2">
-        <v>116.8133546570557</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>559</v>
       </c>
       <c r="S2">
-        <v>120.7763031570944</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>238</v>
       </c>
       <c r="T2">
-        <v>121.3066845649068</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>132.23758797331661</v>
+        <f t="shared" ref="A3:P21" ca="1" si="1">RANDBETWEEN(220.365875, 578.568249)</f>
+        <v>480</v>
       </c>
       <c r="B3">
-        <v>143.15864183028549</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>260</v>
       </c>
       <c r="C3">
-        <v>148.69805790661911</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>389</v>
       </c>
       <c r="D3">
-        <v>145.00328755985689</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>576</v>
       </c>
       <c r="E3">
-        <v>117.79343386651109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>373</v>
       </c>
       <c r="F3">
-        <v>132.25261171561019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>322</v>
       </c>
       <c r="G3">
-        <v>133.85279517929419</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>303</v>
       </c>
       <c r="H3">
-        <v>100.3248426056419</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>232</v>
       </c>
       <c r="I3">
-        <v>138.66340441153659</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>356</v>
       </c>
       <c r="J3">
-        <v>116.5221419149855</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>401</v>
       </c>
       <c r="K3">
-        <v>133.0351481981109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>486</v>
       </c>
       <c r="L3">
-        <v>146.98003703602069</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>279</v>
       </c>
       <c r="M3">
-        <v>115.8514924730933</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>512</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>126.7309524807051</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>266</v>
       </c>
       <c r="P3">
-        <v>117.5236388838721</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>386</v>
       </c>
       <c r="Q3">
-        <v>107.5505966341055</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>458</v>
       </c>
       <c r="R3">
-        <v>135.06201619741091</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>290</v>
       </c>
       <c r="S3">
-        <v>140.80103468859781</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>252</v>
       </c>
       <c r="T3">
-        <v>110.3089813681714</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>138.02845757150371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>517</v>
       </c>
       <c r="B4">
-        <v>120.2708917484139</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>515</v>
       </c>
       <c r="C4">
-        <v>124.91201679045911</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>417</v>
       </c>
       <c r="D4">
-        <v>117.2629249837163</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>453</v>
       </c>
       <c r="E4">
-        <v>142.84415068590559</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>396</v>
       </c>
       <c r="F4">
-        <v>120.7844619018876</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>311</v>
       </c>
       <c r="G4">
-        <v>101.77716955350419</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>337</v>
       </c>
       <c r="H4">
-        <v>130.93247564222699</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>437</v>
       </c>
       <c r="I4">
-        <v>141.12426840150911</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>522</v>
       </c>
       <c r="J4">
-        <v>147.11934557133131</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>370</v>
       </c>
       <c r="K4">
-        <v>105.0939971370306</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>577</v>
       </c>
       <c r="L4">
-        <v>127.74503519141901</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>542</v>
       </c>
       <c r="M4">
-        <v>148.97277479284699</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>331</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>115.8113399226899</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>298</v>
       </c>
       <c r="P4">
-        <v>106.343539453769</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>281</v>
       </c>
       <c r="Q4">
-        <v>126.8117179523975</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>331</v>
       </c>
       <c r="R4">
-        <v>141.99796182959989</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>399</v>
       </c>
       <c r="S4">
-        <v>140.6617609586979</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>238</v>
       </c>
       <c r="T4">
-        <v>125.78188768320901</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>103.7533440863255</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>552</v>
       </c>
       <c r="B5">
-        <v>99.935602006620243</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>415</v>
       </c>
       <c r="C5">
-        <v>126.36794388229821</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>471</v>
       </c>
       <c r="D5">
-        <v>131.8514974471569</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>427</v>
       </c>
       <c r="E5">
-        <v>128.9045429427571</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>535</v>
       </c>
       <c r="F5">
-        <v>120.4209543807338</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>391</v>
       </c>
       <c r="G5">
-        <v>103.4797271351688</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>264</v>
       </c>
       <c r="H5">
-        <v>103.9227440284386</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>413</v>
       </c>
       <c r="I5">
-        <v>128.6511921970334</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>280</v>
       </c>
       <c r="J5">
-        <v>103.0139076614085</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>481</v>
       </c>
       <c r="K5">
-        <v>106.7346244831577</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>555</v>
       </c>
       <c r="L5">
-        <v>136.01371140124641</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>447</v>
       </c>
       <c r="M5">
-        <v>119.4276880382525</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>358</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>112.1049964010397</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>470</v>
       </c>
       <c r="P5">
-        <v>137.96091498383839</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>421</v>
       </c>
       <c r="Q5">
-        <v>145.5600175980874</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>239</v>
       </c>
       <c r="R5">
-        <v>114.4650446949455</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>511</v>
       </c>
       <c r="S5">
-        <v>134.018797412775</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>447</v>
       </c>
       <c r="T5">
-        <v>120.62265344196641</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>105.7037581509535</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>407</v>
       </c>
       <c r="B6">
-        <v>132.76720086283549</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>465</v>
       </c>
       <c r="C6">
-        <v>101.2253936953703</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>320</v>
       </c>
       <c r="D6">
-        <v>124.28210005161441</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>567</v>
       </c>
       <c r="E6">
-        <v>127.0826537190507</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>369</v>
       </c>
       <c r="F6">
-        <v>125.62537504126151</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>222</v>
       </c>
       <c r="G6">
-        <v>134.5628562800313</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>296</v>
       </c>
       <c r="H6">
-        <v>140.7631094211726</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>575</v>
       </c>
       <c r="I6">
-        <v>121.1276972826625</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>266</v>
       </c>
       <c r="J6">
-        <v>99.556405675739654</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>398</v>
       </c>
       <c r="K6">
-        <v>127.69855677557619</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>524</v>
       </c>
       <c r="L6">
-        <v>102.6178869029708</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>388</v>
       </c>
       <c r="M6">
-        <v>126.26530616961401</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>292</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>123.2071088717786</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>415</v>
       </c>
       <c r="P6">
-        <v>102.3605430926246</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>553</v>
       </c>
       <c r="Q6">
-        <v>101.8634806629935</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>536</v>
       </c>
       <c r="R6">
-        <v>115.6279669928626</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>500</v>
       </c>
       <c r="S6">
-        <v>119.02146335202499</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>227</v>
       </c>
       <c r="T6">
-        <v>116.9217158093485</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>137.38326284110809</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>303</v>
       </c>
       <c r="B7">
-        <v>111.8512731757359</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>517</v>
       </c>
       <c r="C7">
-        <v>141.39948527943849</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>536</v>
       </c>
       <c r="D7">
-        <v>147.39199512165521</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>542</v>
       </c>
       <c r="E7">
-        <v>113.1683349845237</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>378</v>
       </c>
       <c r="F7">
-        <v>113.9110017987652</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>394</v>
       </c>
       <c r="G7">
-        <v>100.2208042552018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>473</v>
       </c>
       <c r="H7">
-        <v>110.76849468182191</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>352</v>
       </c>
       <c r="I7">
-        <v>107.4726313492783</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>533</v>
       </c>
       <c r="J7">
-        <v>141.85890773221581</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>327</v>
       </c>
       <c r="K7">
-        <v>146.65328478895179</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>403</v>
       </c>
       <c r="L7">
-        <v>109.954343724902</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>396</v>
       </c>
       <c r="M7">
-        <v>120.89635116362059</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>469</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>133.0257085973879</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>399</v>
       </c>
       <c r="P7">
-        <v>121.6638331998478</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>336</v>
       </c>
       <c r="Q7">
-        <v>130.33569171118199</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>274</v>
       </c>
       <c r="R7">
-        <v>107.23259661130641</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>322</v>
       </c>
       <c r="S7">
-        <v>124.32728316656851</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>288</v>
       </c>
       <c r="T7">
-        <v>118.0420494639533</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>113.07941228096431</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>435</v>
       </c>
       <c r="B8">
-        <v>127.2598948727519</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>563</v>
       </c>
       <c r="C8">
-        <v>113.5726304905651</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>271</v>
       </c>
       <c r="D8">
-        <v>127.9666525895236</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>272</v>
       </c>
       <c r="E8">
-        <v>141.4772417716494</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>360</v>
       </c>
       <c r="F8">
-        <v>128.03105611160041</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>245</v>
       </c>
       <c r="G8">
-        <v>139.28530988023189</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>283</v>
       </c>
       <c r="H8">
-        <v>123.8447911890897</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>533</v>
       </c>
       <c r="I8">
-        <v>127.65215137006371</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>410</v>
       </c>
       <c r="J8">
-        <v>145.55826893131129</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>459</v>
       </c>
       <c r="K8">
-        <v>103.3477805745823</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>447</v>
       </c>
       <c r="L8">
-        <v>107.7160450515445</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>555</v>
       </c>
       <c r="M8">
-        <v>132.2261044923309</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>413</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>114.6316033513672</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>261</v>
       </c>
       <c r="P8">
-        <v>115.36407950377441</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>236</v>
       </c>
       <c r="Q8">
-        <v>111.5789107145615</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>509</v>
       </c>
       <c r="R8">
-        <v>112.2787531840024</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>467</v>
       </c>
       <c r="S8">
-        <v>128.00386802890711</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>253</v>
       </c>
       <c r="T8">
-        <v>122.07420383431359</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>128.95451431395929</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>301</v>
       </c>
       <c r="B9">
-        <v>144.10846746542751</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>390</v>
       </c>
       <c r="C9">
-        <v>146.41371777133349</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>486</v>
       </c>
       <c r="D9">
-        <v>126.8900532261658</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>339</v>
       </c>
       <c r="E9">
-        <v>127.5157636034443</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>429</v>
       </c>
       <c r="F9">
-        <v>141.45269956993039</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>407</v>
       </c>
       <c r="G9">
-        <v>138.6403068362537</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>222</v>
       </c>
       <c r="H9">
-        <v>138.6761823154545</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>237</v>
       </c>
       <c r="I9">
-        <v>120.39226359968509</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>461</v>
       </c>
       <c r="J9">
-        <v>142.35964027231981</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>447</v>
       </c>
       <c r="K9">
-        <v>99.871806658069048</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>264</v>
       </c>
       <c r="L9">
-        <v>126.6254904730055</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>524</v>
       </c>
       <c r="M9">
-        <v>101.7969223462882</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>577</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>103.037971391347</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>416</v>
       </c>
       <c r="P9">
-        <v>106.20113403988729</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>271</v>
       </c>
       <c r="Q9">
-        <v>147.09841933119739</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>392</v>
       </c>
       <c r="R9">
-        <v>134.17792297467139</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>351</v>
       </c>
       <c r="S9">
-        <v>139.5048325611736</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>293</v>
       </c>
       <c r="T9">
-        <v>105.8474035945806</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>123.9673111369946</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>372</v>
       </c>
       <c r="B10">
-        <v>138.46717591796599</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>272</v>
       </c>
       <c r="C10">
-        <v>106.13283553616409</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>573</v>
       </c>
       <c r="D10">
-        <v>99.917369529227841</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>544</v>
       </c>
       <c r="E10">
-        <v>127.7490038675562</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>384</v>
       </c>
       <c r="F10">
-        <v>137.62891517964181</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>572</v>
       </c>
       <c r="G10">
-        <v>138.3218444655526</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>291</v>
       </c>
       <c r="H10">
-        <v>125.7563154393689</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>578</v>
       </c>
       <c r="I10">
-        <v>115.401836461714</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>416</v>
       </c>
       <c r="J10">
-        <v>133.1568581128445</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>244</v>
       </c>
       <c r="K10">
-        <v>117.08695572715639</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>548</v>
       </c>
       <c r="L10">
-        <v>135.76652061428811</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>233</v>
       </c>
       <c r="M10">
-        <v>108.84368434725189</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>409</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>127.68245740275179</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>248</v>
       </c>
       <c r="P10">
-        <v>138.12581013493201</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>430</v>
       </c>
       <c r="Q10">
-        <v>124.5756543677941</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>284</v>
       </c>
       <c r="R10">
-        <v>121.8527101592112</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>567</v>
       </c>
       <c r="S10">
-        <v>124.0469903272716</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>553</v>
       </c>
       <c r="T10">
-        <v>144.13783654894181</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>126.0951956107866</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>354</v>
       </c>
       <c r="B11">
-        <v>117.9883235479124</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>480</v>
       </c>
       <c r="C11">
-        <v>106.2604517663829</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>302</v>
       </c>
       <c r="D11">
-        <v>110.3972979595151</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>507</v>
       </c>
       <c r="E11">
-        <v>146.12782151337791</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>490</v>
       </c>
       <c r="F11">
-        <v>133.44724324074181</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>461</v>
       </c>
       <c r="G11">
-        <v>106.7661671199163</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>254</v>
       </c>
       <c r="H11">
-        <v>110.1324781901203</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>274</v>
       </c>
       <c r="I11">
-        <v>107.9858846039467</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>341</v>
       </c>
       <c r="J11">
-        <v>103.4870591103998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>391</v>
       </c>
       <c r="K11">
-        <v>112.3238758594706</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>546</v>
       </c>
       <c r="L11">
-        <v>102.6091073702394</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>422</v>
       </c>
       <c r="M11">
-        <v>121.5483574677435</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>339</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>136.84656099112499</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>501</v>
       </c>
       <c r="P11">
-        <v>136.05685774985031</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>393</v>
       </c>
       <c r="Q11">
-        <v>134.04391647819841</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>299</v>
       </c>
       <c r="R11">
-        <v>131.7750979492138</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>229</v>
       </c>
       <c r="S11">
-        <v>119.52514957395729</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>557</v>
       </c>
       <c r="T11">
-        <v>117.0412576451845</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>148.1085833939747</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>340</v>
       </c>
       <c r="B12">
-        <v>111.42117342127681</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>223</v>
       </c>
       <c r="C12">
-        <v>111.6667979557474</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>403</v>
       </c>
       <c r="D12">
-        <v>121.9417252336186</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>578</v>
       </c>
       <c r="E12">
-        <v>130.29655478298869</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>283</v>
       </c>
       <c r="F12">
-        <v>141.8984828984093</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>433</v>
       </c>
       <c r="G12">
-        <v>135.6930388687685</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>454</v>
       </c>
       <c r="H12">
-        <v>109.98760120302541</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>551</v>
       </c>
       <c r="I12">
-        <v>116.1043541429615</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>512</v>
       </c>
       <c r="J12">
-        <v>140.87464383375629</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>247</v>
       </c>
       <c r="K12">
-        <v>146.71443193452819</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>469</v>
       </c>
       <c r="L12">
-        <v>120.85474938784689</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>223</v>
       </c>
       <c r="M12">
-        <v>115.6654933743508</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>403</v>
       </c>
       <c r="N12">
-        <v>112.130293883593</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>293</v>
       </c>
       <c r="O12">
-        <v>129.62249300658581</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>467</v>
       </c>
       <c r="P12">
-        <v>148.915086402908</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>549</v>
       </c>
       <c r="Q12">
-        <v>101.8050520167737</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>569</v>
       </c>
       <c r="R12">
-        <v>137.33798626873801</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>271</v>
       </c>
       <c r="S12">
-        <v>130.62188293477189</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>223</v>
       </c>
       <c r="T12">
-        <v>131.81355554162079</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>137.05597500353909</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>346</v>
       </c>
       <c r="B13">
-        <v>141.22438484663971</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>515</v>
       </c>
       <c r="C13">
-        <v>122.3464911340383</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>341</v>
       </c>
       <c r="D13">
-        <v>105.19714016890769</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>424</v>
       </c>
       <c r="E13">
-        <v>102.524412868423</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>514</v>
       </c>
       <c r="F13">
-        <v>140.92037404565059</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>227</v>
       </c>
       <c r="G13">
-        <v>147.08911095816839</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>290</v>
       </c>
       <c r="H13">
-        <v>120.4000599158056</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>481</v>
       </c>
       <c r="I13">
-        <v>127.0394451561728</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>387</v>
       </c>
       <c r="J13">
-        <v>125.29035764228141</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>334</v>
       </c>
       <c r="K13">
-        <v>132.97396397856389</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>546</v>
       </c>
       <c r="L13">
-        <v>129.55337758156841</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>468</v>
       </c>
       <c r="M13">
-        <v>134.9192997361861</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>327</v>
       </c>
       <c r="N13">
-        <v>114.6550187593797</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>354</v>
       </c>
       <c r="O13">
-        <v>148.24734825265281</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>459</v>
       </c>
       <c r="P13">
-        <v>133.65057573704149</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>492</v>
       </c>
       <c r="Q13">
-        <v>107.05771260615261</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>572</v>
       </c>
       <c r="R13">
-        <v>126.11359507223101</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>461</v>
       </c>
       <c r="S13">
-        <v>129.3925073223806</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>298</v>
       </c>
       <c r="T13">
-        <v>102.50089918110631</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>104.083925910537</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>433</v>
       </c>
       <c r="B14">
-        <v>132.8672595564276</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>318</v>
       </c>
       <c r="C14">
-        <v>148.52682979203391</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>310</v>
       </c>
       <c r="D14">
-        <v>101.34249238640351</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>569</v>
       </c>
       <c r="E14">
-        <v>127.7227209741431</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>291</v>
       </c>
       <c r="F14">
-        <v>130.64044509591471</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>428</v>
       </c>
       <c r="G14">
-        <v>146.20751692115201</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>393</v>
       </c>
       <c r="H14">
-        <v>105.9228734369007</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>259</v>
       </c>
       <c r="I14">
-        <v>133.0901178782558</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>555</v>
       </c>
       <c r="J14">
-        <v>142.43721188208889</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>554</v>
       </c>
       <c r="K14">
-        <v>125.22181243428579</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>571</v>
       </c>
       <c r="L14">
-        <v>111.3887331809179</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>500</v>
       </c>
       <c r="M14">
-        <v>117.2437565353828</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>412</v>
       </c>
       <c r="N14">
-        <v>112.5953637057322</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>475</v>
       </c>
       <c r="O14">
-        <v>115.3845564576212</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>238</v>
       </c>
       <c r="P14">
-        <v>101.37924950075561</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>339</v>
       </c>
       <c r="Q14">
-        <v>145.70212007138079</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>396</v>
       </c>
       <c r="R14">
-        <v>102.77893302335239</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>283</v>
       </c>
       <c r="S14">
-        <v>124.8909271113351</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>515</v>
       </c>
       <c r="T14">
-        <v>145.81391688647531</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>134.8086887256772</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>458</v>
       </c>
       <c r="B15">
-        <v>107.17300921687929</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>439</v>
       </c>
       <c r="C15">
-        <v>105.891502458218</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>396</v>
       </c>
       <c r="D15">
-        <v>117.3290816671299</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>297</v>
       </c>
       <c r="E15">
-        <v>110.90557561269151</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>253</v>
       </c>
       <c r="F15">
-        <v>138.6496548551583</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>241</v>
       </c>
       <c r="G15">
-        <v>136.61862625977281</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>578</v>
       </c>
       <c r="H15">
-        <v>124.9511878529493</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>520</v>
       </c>
       <c r="I15">
-        <v>133.69834001966061</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>310</v>
       </c>
       <c r="J15">
-        <v>104.1794731074657</v>
+        <f t="shared" ref="J15:T21" ca="1" si="2">RANDBETWEEN(220.365875, 578.568249)</f>
+        <v>242</v>
       </c>
       <c r="K15">
-        <v>113.3240202118871</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>269</v>
       </c>
       <c r="L15">
-        <v>101.0771103529931</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>530</v>
       </c>
       <c r="M15">
-        <v>142.30679730861701</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>554</v>
       </c>
       <c r="N15">
-        <v>126.4128189052683</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>311</v>
       </c>
       <c r="O15">
-        <v>112.38075192381871</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>375</v>
       </c>
       <c r="P15">
-        <v>137.48153450062549</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>317</v>
       </c>
       <c r="Q15">
-        <v>104.4877401777957</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>367</v>
       </c>
       <c r="R15">
-        <v>127.53493822006909</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>301</v>
       </c>
       <c r="S15">
-        <v>124.8985435275704</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>243</v>
       </c>
       <c r="T15">
-        <v>118.7551295002805</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>107.7144213132205</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>268</v>
       </c>
       <c r="B16">
-        <v>132.7152245749069</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>429</v>
       </c>
       <c r="C16">
-        <v>119.0042808975097</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>253</v>
       </c>
       <c r="D16">
-        <v>111.20801354974181</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>513</v>
       </c>
       <c r="E16">
-        <v>122.7471255738038</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>226</v>
       </c>
       <c r="F16">
-        <v>144.79604399504359</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>575</v>
       </c>
       <c r="G16">
-        <v>106.08770348519801</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>442</v>
       </c>
       <c r="H16">
-        <v>124.4337449158855</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>302</v>
       </c>
       <c r="I16">
-        <v>130.2105563465461</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>257</v>
       </c>
       <c r="J16">
-        <v>142.19267994242699</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>517</v>
       </c>
       <c r="K16">
-        <v>138.70377258077269</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>351</v>
       </c>
       <c r="L16">
-        <v>105.5822343676051</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>572</v>
       </c>
       <c r="M16">
-        <v>137.6381969688334</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>541</v>
       </c>
       <c r="N16">
-        <v>131.01333097868761</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>511</v>
       </c>
       <c r="O16">
-        <v>116.0661374319609</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>342</v>
       </c>
       <c r="P16">
-        <v>132.72020848196181</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>374</v>
       </c>
       <c r="Q16">
-        <v>115.6340425331046</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>538</v>
       </c>
       <c r="R16">
-        <v>136.99586874684061</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>485</v>
       </c>
       <c r="S16">
-        <v>116.30504891341771</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>515</v>
       </c>
       <c r="T16">
-        <v>102.4670751272116</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>119.0264439812905</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>304</v>
       </c>
       <c r="B17">
-        <v>119.87022270318241</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>348</v>
       </c>
       <c r="C17">
-        <v>138.63307196856471</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>457</v>
       </c>
       <c r="D17">
-        <v>100.2690990131037</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>348</v>
       </c>
       <c r="E17">
-        <v>135.7196841599596</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>381</v>
       </c>
       <c r="F17">
-        <v>126.39126116836989</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>457</v>
       </c>
       <c r="G17">
-        <v>146.05103742332989</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>277</v>
       </c>
       <c r="H17">
-        <v>127.1147456827856</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>484</v>
       </c>
       <c r="I17">
-        <v>108.79735734278189</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>479</v>
       </c>
       <c r="J17">
-        <v>100.3117977813784</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>568</v>
       </c>
       <c r="K17">
-        <v>102.11239233386409</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>553</v>
       </c>
       <c r="L17">
-        <v>104.2865985470566</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>458</v>
       </c>
       <c r="M17">
-        <v>120.919195003548</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>244</v>
       </c>
       <c r="N17">
-        <v>138.09360887979349</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>465</v>
       </c>
       <c r="O17">
-        <v>131.1728331727048</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>548</v>
       </c>
       <c r="P17">
-        <v>102.9528065926921</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>463</v>
       </c>
       <c r="Q17">
-        <v>105.3370338377876</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>336</v>
       </c>
       <c r="R17">
-        <v>109.9376774229757</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>392</v>
       </c>
       <c r="S17">
-        <v>137.38099697151739</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>232</v>
       </c>
       <c r="T17">
-        <v>99.422365497812763</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>143.4714405679895</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>428</v>
       </c>
       <c r="B18">
-        <v>106.87563318914469</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>403</v>
       </c>
       <c r="C18">
-        <v>110.3906127054255</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>380</v>
       </c>
       <c r="D18">
-        <v>113.3376262264746</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>350</v>
       </c>
       <c r="E18">
-        <v>134.81943545285731</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>487</v>
       </c>
       <c r="F18">
-        <v>102.6152468332278</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>386</v>
       </c>
       <c r="G18">
-        <v>138.69316028209801</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>531</v>
       </c>
       <c r="H18">
-        <v>135.87058563467551</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>432</v>
       </c>
       <c r="I18">
-        <v>129.05346325824081</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>571</v>
       </c>
       <c r="J18">
-        <v>141.66527667647179</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>406</v>
       </c>
       <c r="K18">
-        <v>107.8671554175789</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>454</v>
       </c>
       <c r="L18">
-        <v>127.0059163923482</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>562</v>
       </c>
       <c r="M18">
-        <v>99.281981029571611</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>456</v>
       </c>
       <c r="N18">
-        <v>113.4873757851218</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>227</v>
       </c>
       <c r="O18">
-        <v>101.6991705874748</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>297</v>
       </c>
       <c r="P18">
-        <v>116.51313391001921</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>543</v>
       </c>
       <c r="Q18">
-        <v>121.9313082792103</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>315</v>
       </c>
       <c r="R18">
-        <v>107.3141688181333</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>245</v>
       </c>
       <c r="S18">
-        <v>106.63837052938889</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>574</v>
       </c>
       <c r="T18">
-        <v>102.32440975279501</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>105.6740976896797</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>530</v>
       </c>
       <c r="B19">
-        <v>127.50125447052319</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>365</v>
       </c>
       <c r="C19">
-        <v>147.67495311944029</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>276</v>
       </c>
       <c r="D19">
-        <v>102.704203556333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>542</v>
       </c>
       <c r="E19">
-        <v>111.5950939382989</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>269</v>
       </c>
       <c r="F19">
-        <v>144.6392027230599</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>316</v>
       </c>
       <c r="G19">
-        <v>148.64154038768871</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>433</v>
       </c>
       <c r="H19">
-        <v>99.324065715170931</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>327</v>
       </c>
       <c r="I19">
-        <v>115.7480883232674</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>426</v>
       </c>
       <c r="J19">
-        <v>130.49790052348229</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>492</v>
       </c>
       <c r="K19">
-        <v>140.49141241986649</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>500</v>
       </c>
       <c r="L19">
-        <v>145.97131633120489</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>374</v>
       </c>
       <c r="M19">
-        <v>120.9031004335249</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>250</v>
       </c>
       <c r="N19">
-        <v>134.77411851519221</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>258</v>
       </c>
       <c r="O19">
-        <v>105.62900367267299</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>315</v>
       </c>
       <c r="P19">
-        <v>145.11425074669989</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>574</v>
       </c>
       <c r="Q19">
-        <v>127.93844317092849</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>450</v>
       </c>
       <c r="R19">
-        <v>126.864472494181</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>405</v>
       </c>
       <c r="S19">
-        <v>126.63807730404081</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>286</v>
       </c>
       <c r="T19">
-        <v>115.6145865946759</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>122.2672861047127</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>416</v>
       </c>
       <c r="B20">
-        <v>115.8983352851954</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>246</v>
       </c>
       <c r="C20">
-        <v>100.70545526704549</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>437</v>
       </c>
       <c r="D20">
-        <v>134.33348696467451</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>292</v>
       </c>
       <c r="E20">
-        <v>100.17216378014091</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>552</v>
       </c>
       <c r="F20">
-        <v>137.69246676232919</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>398</v>
       </c>
       <c r="G20">
-        <v>143.17839700682549</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>574</v>
       </c>
       <c r="H20">
-        <v>102.5986972354477</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>387</v>
       </c>
       <c r="I20">
-        <v>139.17364088266211</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>307</v>
       </c>
       <c r="J20">
-        <v>118.98301324434691</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>454</v>
       </c>
       <c r="K20">
-        <v>109.4220934563552</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>561</v>
       </c>
       <c r="L20">
-        <v>139.35767381628639</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>446</v>
       </c>
       <c r="M20">
-        <v>106.237500033045</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>300</v>
       </c>
       <c r="N20">
-        <v>139.71865889342419</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>300</v>
       </c>
       <c r="O20">
-        <v>128.79820031870619</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>331</v>
       </c>
       <c r="P20">
-        <v>145.3402907264159</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>270</v>
       </c>
       <c r="Q20">
-        <v>115.4605178372871</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>525</v>
       </c>
       <c r="R20">
-        <v>115.9477104255143</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>410</v>
       </c>
       <c r="S20">
-        <v>138.77452107011749</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>482</v>
       </c>
       <c r="T20">
-        <v>132.7705774466107</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>106.4898936515004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>393</v>
       </c>
       <c r="B21">
-        <v>141.90549358079821</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>448</v>
       </c>
       <c r="C21">
-        <v>146.88882740322629</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>475</v>
       </c>
       <c r="D21">
-        <v>145.65485324266189</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>526</v>
       </c>
       <c r="E21">
-        <v>113.9575837266604</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>467</v>
       </c>
       <c r="F21">
-        <v>130.122255093918</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>461</v>
       </c>
       <c r="G21">
-        <v>135.97535206025549</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>260</v>
       </c>
       <c r="H21">
-        <v>101.16815359213921</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>242</v>
       </c>
       <c r="I21">
-        <v>101.94042948011951</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>518</v>
       </c>
       <c r="J21">
-        <v>122.5755933496544</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>423</v>
       </c>
       <c r="K21">
-        <v>99.721913274198542</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>516</v>
       </c>
       <c r="L21">
-        <v>127.71113042498069</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>525</v>
       </c>
       <c r="M21">
-        <v>127.96507631391211</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>531</v>
       </c>
       <c r="N21">
-        <v>134.1804980236505</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>298</v>
       </c>
       <c r="O21">
-        <v>120.350110898582</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>273</v>
       </c>
       <c r="P21">
-        <v>131.97590353698999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>322</v>
       </c>
       <c r="Q21">
-        <v>146.97874331992409</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>222</v>
       </c>
       <c r="R21">
-        <v>116.7497254915408</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>358</v>
       </c>
       <c r="S21">
-        <v>120.4440229403273</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>359</v>
       </c>
       <c r="T21">
-        <v>104.72529348743321</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_perm_heterogeneo.xlsx
+++ b/mapa_perm_heterogeneo.xlsx
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,343 +463,343 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(220.365875, 578.568249)</f>
-        <v>466</v>
+        <v>294</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:T15" ca="1" si="0">RANDBETWEEN(220.365875, 578.568249)</f>
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>402</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>434</v>
+        <v>337</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>440</v>
+        <v>232</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>301</v>
+        <v>459</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>566</v>
+        <v>357</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <v>529</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>408</v>
+        <v>257</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>545</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>524</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="0"/>
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:P21" ca="1" si="1">RANDBETWEEN(220.365875, 578.568249)</f>
-        <v>480</v>
+        <v>284</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
+        <v>453</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
         <v>260</v>
       </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>389</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>576</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>373</v>
-      </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>449</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>401</v>
+        <v>564</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>512</v>
+        <v>447</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="0"/>
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="0"/>
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>515</v>
+        <v>372</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <v>251</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>396</v>
+        <v>242</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>495</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>337</v>
+        <v>575</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>437</v>
+        <v>545</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>381</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>577</v>
+        <v>299</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>542</v>
+        <v>339</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>542</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="0"/>
-        <v>339</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>471</v>
+        <v>370</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>427</v>
+        <v>525</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>535</v>
+        <v>326</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>391</v>
+        <v>256</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>413</v>
+        <v>225</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>481</v>
+        <v>319</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>358</v>
+        <v>257</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>470</v>
+        <v>225</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>421</v>
+        <v>514</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>239</v>
+        <v>522</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>511</v>
+        <v>233</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="0"/>
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="0"/>
-        <v>318</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>567</v>
+        <v>253</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
@@ -807,1287 +807,1287 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>453</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>296</v>
+        <v>575</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>398</v>
+        <v>563</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>292</v>
+        <v>464</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <v>226</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>553</v>
+        <v>305</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="0"/>
-        <v>227</v>
+        <v>497</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="0"/>
-        <v>266</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>517</v>
+        <v>340</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>378</v>
+        <v>537</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>473</v>
+        <v>578</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>533</v>
+        <v>398</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>327</v>
+        <v>563</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>403</v>
+        <v>279</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>391</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="0"/>
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="0"/>
-        <v>456</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>435</v>
+        <v>577</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>511</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
         <v>563</v>
       </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>271</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>272</v>
-      </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
+        <v>523</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>459</v>
+        <v>361</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>555</v>
+        <v>375</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>573</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>509</v>
+        <v>441</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="0"/>
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>421</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>524</v>
+        <v>302</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>577</v>
+        <v>423</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>416</v>
+        <v>279</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>392</v>
+        <v>297</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="0"/>
-        <v>293</v>
+        <v>484</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="0"/>
-        <v>381</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>372</v>
+        <v>541</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>422</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>573</v>
+        <v>490</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>384</v>
+        <v>500</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>572</v>
+        <v>342</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>291</v>
+        <v>437</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>578</v>
+        <v>293</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>430</v>
+        <v>255</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="0"/>
-        <v>567</v>
+        <v>235</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="0"/>
-        <v>553</v>
+        <v>419</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>354</v>
+        <v>458</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <v>409</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>507</v>
+        <v>234</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>490</v>
+        <v>255</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>501</v>
+        <v>423</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>393</v>
+        <v>527</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="0"/>
-        <v>229</v>
+        <v>542</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="0"/>
-        <v>557</v>
+        <v>407</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>403</v>
+        <v>572</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>512</v>
+        <v>374</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>483</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>467</v>
+        <v>341</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>569</v>
+        <v>401</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="0"/>
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>529</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="0"/>
-        <v>555</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>346</v>
+        <v>530</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
+        <v>494</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>443</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>499</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>443</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="0"/>
+        <v>542</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="0"/>
         <v>515</v>
       </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>341</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>424</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>514</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>227</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>481</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="0"/>
-        <v>387</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="0"/>
-        <v>334</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ca="1" si="0"/>
-        <v>546</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="0"/>
-        <v>468</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="0"/>
-        <v>327</v>
-      </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>459</v>
+        <v>312</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>492</v>
+        <v>395</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>572</v>
+        <v>301</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>329</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="0"/>
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="0"/>
-        <v>417</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
+        <v>363</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>492</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>488</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
         <v>318</v>
       </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>569</v>
-      </c>
-      <c r="E14">
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="J14">
         <f t="shared" ca="1" si="0"/>
         <v>291</v>
       </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>428</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>393</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>259</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="0"/>
-        <v>555</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="0"/>
-        <v>554</v>
-      </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>392</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>522</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="0"/>
-        <v>396</v>
+        <v>269</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="0"/>
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="0"/>
-        <v>515</v>
+        <v>364</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="0"/>
-        <v>390</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>458</v>
+        <v>272</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
+        <v>564</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>297</v>
+        <v>497</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>548</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>241</v>
+        <v>499</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>578</v>
+        <v>333</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>520</v>
+        <v>425</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>310</v>
+        <v>487</v>
       </c>
       <c r="J15">
         <f t="shared" ref="J15:T21" ca="1" si="2">RANDBETWEEN(220.365875, 578.568249)</f>
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="2"/>
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="2"/>
-        <v>530</v>
+        <v>443</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="2"/>
-        <v>554</v>
+        <v>320</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>311</v>
+        <v>528</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="2"/>
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="2"/>
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="2"/>
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="2"/>
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="2"/>
-        <v>471</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>253</v>
+        <v>560</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>513</v>
+        <v>292</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="1"/>
+        <v>523</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="1"/>
         <v>575</v>
       </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>442</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="1"/>
-        <v>302</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="1"/>
-        <v>257</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="1"/>
-        <v>517</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="1"/>
-        <v>351</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="1"/>
-        <v>572</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="1"/>
-        <v>541</v>
-      </c>
       <c r="N16">
         <f t="shared" ca="1" si="1"/>
-        <v>511</v>
+        <v>300</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="1"/>
-        <v>342</v>
+        <v>230</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>510</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="2"/>
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="2"/>
-        <v>485</v>
+        <v>373</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="2"/>
-        <v>515</v>
+        <v>295</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="2"/>
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>484</v>
+        <v>243</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>479</v>
+        <v>222</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>568</v>
+        <v>426</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>553</v>
+        <v>264</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="1"/>
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="1"/>
-        <v>548</v>
+        <v>414</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="1"/>
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="2"/>
-        <v>336</v>
+        <v>258</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="2"/>
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>398</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="2"/>
-        <v>514</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>403</v>
+        <v>563</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="1"/>
+        <v>564</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="1"/>
         <v>487</v>
       </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>386</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>531</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="1"/>
-        <v>432</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="1"/>
-        <v>571</v>
-      </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>562</v>
+        <v>303</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="1"/>
-        <v>456</v>
+        <v>287</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="1"/>
-        <v>227</v>
+        <v>469</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="1"/>
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="1"/>
-        <v>543</v>
+        <v>290</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="2"/>
-        <v>315</v>
+        <v>517</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>469</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="2"/>
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="2"/>
-        <v>437</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>530</v>
+        <v>304</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>433</v>
+        <v>570</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>426</v>
+        <v>341</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>492</v>
+        <v>383</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>510</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="1"/>
-        <v>315</v>
+        <v>487</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="1"/>
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="2"/>
-        <v>405</v>
+        <v>516</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="2"/>
-        <v>286</v>
+        <v>419</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="2"/>
-        <v>254</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>437</v>
+        <v>321</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>292</v>
+        <v>355</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>398</v>
+        <v>295</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="1"/>
+        <v>483</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="1"/>
+        <v>578</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="2"/>
         <v>454</v>
       </c>
-      <c r="K20">
-        <f t="shared" ca="1" si="1"/>
-        <v>561</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="1"/>
-        <v>446</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="1"/>
-        <v>331</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" ca="1" si="2"/>
-        <v>525</v>
-      </c>
       <c r="R20">
         <f t="shared" ca="1" si="2"/>
-        <v>410</v>
+        <v>253</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="2"/>
-        <v>482</v>
+        <v>325</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="2"/>
-        <v>549</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>429</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="1"/>
+        <v>496</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="1"/>
+        <v>536</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="1"/>
+        <v>508</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ca="1" si="1"/>
+        <v>539</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="1"/>
         <v>393</v>
       </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="1"/>
-        <v>448</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="D21">
+      <c r="P21">
         <f t="shared" ca="1" si="1"/>
         <v>526</v>
       </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>467</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="1"/>
-        <v>461</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="1"/>
-        <v>242</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="1"/>
-        <v>518</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="1"/>
-        <v>423</v>
-      </c>
-      <c r="K21">
-        <f t="shared" ca="1" si="1"/>
-        <v>516</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="1"/>
-        <v>525</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="1"/>
-        <v>531</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ca="1" si="1"/>
-        <v>298</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ca="1" si="1"/>
-        <v>322</v>
-      </c>
       <c r="Q21">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="2"/>
-        <v>358</v>
+        <v>256</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="2"/>
-        <v>359</v>
+        <v>522</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="2"/>
-        <v>570</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
